--- a/BalanceSheet/WY_bal.xlsx
+++ b/BalanceSheet/WY_bal.xlsx
@@ -3955,10 +3955,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>8222000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>8208000000.0</v>
@@ -4265,10 +4263,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>936000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>934000000.0</v>
@@ -4394,10 +4390,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>962000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>411000000.0</v>
@@ -4523,10 +4517,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>9328000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>8731000000.0</v>
@@ -5341,10 +5333,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B38" s="0" t="n">
+        <v>4459000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5113000000.0</v>
@@ -5470,10 +5460,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B39" s="0" t="n">
+        <v>5475000000.0</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5608000000.0</v>
